--- a/data/576/DOS/mrsd_14.xlsx
+++ b/data/576/DOS/mrsd_14.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8502C3-5538-4836-9A55-0AF7D245B714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23A11D9-1399-469D-96FF-74D7C2E5281A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="615" windowWidth="14430" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="1530" windowWidth="17205" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Topline UR" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TotalUnemploymentRate*(PerCent)</t>
+    <t>TotalUnemploymentRate(PerCent)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,8 +536,8 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -845,6 +845,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061D1B60B48AE2C4381B419F34A85A18B" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0de0c41607dd183f575cde32b25030cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5775c44-5034-46ee-b1b0-8650967f43ea" xmlns:ns3="34e1e7f4-1fc7-4644-a9e8-08ea5cae6a7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cdb102f7136035d3fe7be87f5c59b2eb" ns2:_="" ns3:_="">
     <xsd:import namespace="e5775c44-5034-46ee-b1b0-8650967f43ea"/>
@@ -1000,16 +1009,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <iMAS_PublishDateTime xmlns="34e1e7f4-1fc7-4644-a9e8-08ea5cae6a7f">2021-01-28T02:00:00+00:00</iMAS_PublishDateTime>
+    <_dlc_DocId xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">4XQ4D5TRQRHF-1623496119-977</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">
+      <Url>http://prd2/_layouts/DocIdRedir.aspx?ID=4XQ4D5TRQRHF-1623496119-977</Url>
+      <Description>4XQ4D5TRQRHF-1623496119-977</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1055,20 +1068,15 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <iMAS_PublishDateTime xmlns="34e1e7f4-1fc7-4644-a9e8-08ea5cae6a7f">2021-01-28T02:00:00+00:00</iMAS_PublishDateTime>
-    <_dlc_DocId xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">4XQ4D5TRQRHF-1623496119-977</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="e5775c44-5034-46ee-b1b0-8650967f43ea">
-      <Url>http://prd2/_layouts/DocIdRedir.aspx?ID=4XQ4D5TRQRHF-1623496119-977</Url>
-      <Description>4XQ4D5TRQRHF-1623496119-977</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9606F8C3-4C1F-4A25-9A3C-9D01B89DCFC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00ACBC51-81E4-4CDA-907C-81531A2CDB75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1087,23 +1095,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9606F8C3-4C1F-4A25-9A3C-9D01B89DCFC0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D122CAAC-F621-42DD-A182-A26F44DD4310}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0A48CF-C8B7-4E70-9FCC-A0A7F1B2DAF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1112,4 +1104,12 @@
     <ds:schemaRef ds:uri="e5775c44-5034-46ee-b1b0-8650967f43ea"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D122CAAC-F621-42DD-A182-A26F44DD4310}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>